--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>312.161971943165</v>
+        <v>0.040154</v>
       </c>
       <c r="N2">
-        <v>312.161971943165</v>
+        <v>0.120462</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="Q2">
-        <v>24181.07472839554</v>
+        <v>4.291602889475333</v>
       </c>
       <c r="R2">
-        <v>24181.07472839554</v>
+        <v>38.624426005278</v>
       </c>
       <c r="S2">
-        <v>0.1186672908611009</v>
+        <v>1.776390565637113E-05</v>
       </c>
       <c r="T2">
-        <v>0.1186672908611009</v>
+        <v>1.776390565637113E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>312.161971943165</v>
+        <v>2.854025333333333</v>
       </c>
       <c r="N3">
-        <v>312.161971943165</v>
+        <v>8.562075999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.008368558809981951</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.008368558809981953</v>
       </c>
       <c r="Q3">
-        <v>24027.16490543777</v>
+        <v>305.0342024996048</v>
       </c>
       <c r="R3">
-        <v>24027.16490543777</v>
+        <v>2745.307822496444</v>
       </c>
       <c r="S3">
-        <v>0.1179119868916763</v>
+        <v>0.001262604890228284</v>
       </c>
       <c r="T3">
-        <v>0.1179119868916763</v>
+        <v>0.001262604890228284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>121.711490137238</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>121.711490137238</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>312.161971943165</v>
+        <v>0.1353773333333333</v>
       </c>
       <c r="N4">
-        <v>312.161971943165</v>
+        <v>0.406132</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0003969527398046444</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0003969527398046444</v>
       </c>
       <c r="Q4">
-        <v>37993.69876938129</v>
+        <v>14.46893845950089</v>
       </c>
       <c r="R4">
-        <v>37993.69876938129</v>
+        <v>130.220446135508</v>
       </c>
       <c r="S4">
-        <v>0.186451981700417</v>
+        <v>5.989017725119392E-05</v>
       </c>
       <c r="T4">
-        <v>0.186451981700417</v>
+        <v>5.989017725119393E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.36676684056</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>140.36676684056</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.2150303296163119</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.2150303296163119</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>312.161971943165</v>
+        <v>338.0118816666666</v>
       </c>
       <c r="N5">
-        <v>312.161971943165</v>
+        <v>1014.035645</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9911167490922156</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9911167490922157</v>
       </c>
       <c r="Q5">
-        <v>43817.16673223567</v>
+        <v>36126.23320310955</v>
       </c>
       <c r="R5">
-        <v>43817.16673223567</v>
+        <v>325136.098827986</v>
       </c>
       <c r="S5">
-        <v>0.2150303296163119</v>
+        <v>0.1495345713169087</v>
       </c>
       <c r="T5">
-        <v>0.2150303296163119</v>
+        <v>0.1495345713169087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,1233 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.159493575321</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>194.159493575321</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J6">
-        <v>0.2974363579169756</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>312.161971943165</v>
+        <v>0.040154</v>
       </c>
       <c r="N6">
-        <v>312.161971943165</v>
+        <v>0.120462</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="Q6">
-        <v>60609.21038595847</v>
+        <v>3.101210790141999</v>
       </c>
       <c r="R6">
-        <v>60609.21038595847</v>
+        <v>27.910897111278</v>
       </c>
       <c r="S6">
-        <v>0.2974363579169756</v>
+        <v>1.283660611556201E-05</v>
       </c>
       <c r="T6">
-        <v>0.2974363579169756</v>
+        <v>1.283660611556202E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>77.232923</v>
+      </c>
+      <c r="H7">
+        <v>231.698769</v>
+      </c>
+      <c r="I7">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J7">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P7">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q7">
+        <v>220.4247188093826</v>
+      </c>
+      <c r="R7">
+        <v>1983.822469284444</v>
+      </c>
+      <c r="S7">
+        <v>0.0009123872851480694</v>
+      </c>
+      <c r="T7">
+        <v>0.0009123872851480697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>77.232923</v>
+      </c>
+      <c r="H8">
+        <v>231.698769</v>
+      </c>
+      <c r="I8">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J8">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.406132</v>
+      </c>
+      <c r="O8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q8">
+        <v>10.45558716127867</v>
+      </c>
+      <c r="R8">
+        <v>94.100284451508</v>
+      </c>
+      <c r="S8">
+        <v>4.327801725793555E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.327801725793556E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>77.232923</v>
+      </c>
+      <c r="H9">
+        <v>231.698769</v>
+      </c>
+      <c r="I9">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J9">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N9">
+        <v>1014.035645</v>
+      </c>
+      <c r="O9">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P9">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q9">
+        <v>26105.64562984677</v>
+      </c>
+      <c r="R9">
+        <v>234950.810668621</v>
+      </c>
+      <c r="S9">
+        <v>0.1080571147914269</v>
+      </c>
+      <c r="T9">
+        <v>0.108057114791427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>136.676337</v>
+      </c>
+      <c r="H10">
+        <v>410.029011</v>
+      </c>
+      <c r="I10">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J10">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.040154</v>
+      </c>
+      <c r="N10">
+        <v>0.120462</v>
+      </c>
+      <c r="O10">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P10">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q10">
+        <v>5.488101635898</v>
+      </c>
+      <c r="R10">
+        <v>49.392914723082</v>
+      </c>
+      <c r="S10">
+        <v>2.271648197734035E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.271648197734035E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>136.676337</v>
+      </c>
+      <c r="H11">
+        <v>410.029011</v>
+      </c>
+      <c r="I11">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J11">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N11">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P11">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q11">
+        <v>390.077728265204</v>
+      </c>
+      <c r="R11">
+        <v>3510.699554386836</v>
+      </c>
+      <c r="S11">
+        <v>0.001614619092681662</v>
+      </c>
+      <c r="T11">
+        <v>0.001614619092681662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>136.676337</v>
+      </c>
+      <c r="H12">
+        <v>410.029011</v>
+      </c>
+      <c r="I12">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J12">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.406132</v>
+      </c>
+      <c r="O12">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P12">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q12">
+        <v>18.502878032828</v>
+      </c>
+      <c r="R12">
+        <v>166.525902295452</v>
+      </c>
+      <c r="S12">
+        <v>7.658755672677851E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.658755672677851E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>136.676337</v>
+      </c>
+      <c r="H13">
+        <v>410.029011</v>
+      </c>
+      <c r="I13">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J13">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N13">
+        <v>1014.035645</v>
+      </c>
+      <c r="O13">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P13">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q13">
+        <v>46198.22584867745</v>
+      </c>
+      <c r="R13">
+        <v>415784.0326380971</v>
+      </c>
+      <c r="S13">
+        <v>0.1912248049511314</v>
+      </c>
+      <c r="T13">
+        <v>0.1912248049511315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H14">
+        <v>430.367156</v>
+      </c>
+      <c r="I14">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J14">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.040154</v>
+      </c>
+      <c r="N14">
+        <v>0.120462</v>
+      </c>
+      <c r="O14">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P14">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q14">
+        <v>5.760320927341332</v>
+      </c>
+      <c r="R14">
+        <v>51.84288834607199</v>
+      </c>
+      <c r="S14">
+        <v>2.38432586003365E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.38432586003365E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H15">
+        <v>430.367156</v>
+      </c>
+      <c r="I15">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J15">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N15">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P15">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q15">
+        <v>409.4262552862061</v>
+      </c>
+      <c r="R15">
+        <v>3684.836297575855</v>
+      </c>
+      <c r="S15">
+        <v>0.001694706979991489</v>
+      </c>
+      <c r="T15">
+        <v>0.001694706979991489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H16">
+        <v>430.367156</v>
+      </c>
+      <c r="I16">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J16">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.406132</v>
+      </c>
+      <c r="O16">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P16">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q16">
+        <v>19.42065264451022</v>
+      </c>
+      <c r="R16">
+        <v>174.785873800592</v>
+      </c>
+      <c r="S16">
+        <v>8.038643142129357E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.038643142129357E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H17">
+        <v>430.367156</v>
+      </c>
+      <c r="I17">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J17">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N17">
+        <v>1014.035645</v>
+      </c>
+      <c r="O17">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P17">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q17">
+        <v>48489.73740236395</v>
+      </c>
+      <c r="R17">
+        <v>436407.6366212756</v>
+      </c>
+      <c r="S17">
+        <v>0.2007098845585664</v>
+      </c>
+      <c r="T17">
+        <v>0.2007098845585664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H18">
+        <v>595.794632</v>
+      </c>
+      <c r="I18">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J18">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.040154</v>
+      </c>
+      <c r="N18">
+        <v>0.120462</v>
+      </c>
+      <c r="O18">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P18">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q18">
+        <v>7.974512551109332</v>
+      </c>
+      <c r="R18">
+        <v>71.77061295998399</v>
+      </c>
+      <c r="S18">
+        <v>3.300829369857472E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.300829369857472E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H19">
+        <v>595.794632</v>
+      </c>
+      <c r="I19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N19">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P19">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q19">
+        <v>566.8043243973368</v>
+      </c>
+      <c r="R19">
+        <v>5101.238919576032</v>
+      </c>
+      <c r="S19">
+        <v>0.002346130059915308</v>
+      </c>
+      <c r="T19">
+        <v>0.002346130059915308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H20">
+        <v>595.794632</v>
+      </c>
+      <c r="I20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.406132</v>
+      </c>
+      <c r="O20">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P20">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q20">
+        <v>26.88569616482489</v>
+      </c>
+      <c r="R20">
+        <v>241.971265483424</v>
+      </c>
+      <c r="S20">
+        <v>0.0001112859186829834</v>
+      </c>
+      <c r="T20">
+        <v>0.0001112859186829834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H21">
+        <v>595.794632</v>
+      </c>
+      <c r="I21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N21">
+        <v>1014.035645</v>
+      </c>
+      <c r="O21">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P21">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q21">
+        <v>67128.55488307305</v>
+      </c>
+      <c r="R21">
+        <v>604156.9939476575</v>
+      </c>
+      <c r="S21">
+        <v>0.2778601251098575</v>
+      </c>
+      <c r="T21">
+        <v>0.2778601251098575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H22">
+        <v>136.651993</v>
+      </c>
+      <c r="I22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.040154</v>
+      </c>
+      <c r="N22">
+        <v>0.120462</v>
+      </c>
+      <c r="O22">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P22">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q22">
+        <v>1.829041375640667</v>
+      </c>
+      <c r="R22">
+        <v>16.461372380766</v>
+      </c>
+      <c r="S22">
+        <v>7.570811949577244E-06</v>
+      </c>
+      <c r="T22">
+        <v>7.570811949577244E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H23">
+        <v>136.651993</v>
+      </c>
+      <c r="I23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N23">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P23">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q23">
+        <v>130.0027499574964</v>
+      </c>
+      <c r="R23">
+        <v>1170.024749617468</v>
+      </c>
+      <c r="S23">
+        <v>0.0005381105020171384</v>
+      </c>
+      <c r="T23">
+        <v>0.0005381105020171385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H24">
+        <v>136.651993</v>
+      </c>
+      <c r="I24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.406132</v>
+      </c>
+      <c r="O24">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P24">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q24">
+        <v>6.166527469008445</v>
+      </c>
+      <c r="R24">
+        <v>55.498747221076</v>
+      </c>
+      <c r="S24">
+        <v>2.552463846445938E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.552463846445938E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H7">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>312.161971943165</v>
-      </c>
-      <c r="N7">
-        <v>312.161971943165</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>13143.71426815895</v>
-      </c>
-      <c r="R7">
-        <v>13143.71426815895</v>
-      </c>
-      <c r="S7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="T7">
-        <v>0.06450205301351841</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H25">
+        <v>136.651993</v>
+      </c>
+      <c r="I25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N25">
+        <v>1014.035645</v>
+      </c>
+      <c r="O25">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P25">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q25">
+        <v>15396.66576247672</v>
+      </c>
+      <c r="R25">
+        <v>138569.9918622905</v>
+      </c>
+      <c r="S25">
+        <v>0.06373024836432459</v>
+      </c>
+      <c r="T25">
+        <v>0.0637302483643246</v>
       </c>
     </row>
   </sheetData>
